--- a/biology/Écologie/Cent_espèces_envahissantes_parmi_les_plus_nuisibles_du_monde/Cent_espèces_envahissantes_parmi_les_plus_nuisibles_du_monde.xlsx
+++ b/biology/Écologie/Cent_espèces_envahissantes_parmi_les_plus_nuisibles_du_monde/Cent_espèces_envahissantes_parmi_les_plus_nuisibles_du_monde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cent_esp%C3%A8ces_envahissantes_parmi_les_plus_nuisibles_du_monde</t>
+          <t>Cent_espèces_envahissantes_parmi_les_plus_nuisibles_du_monde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cent espèces envahissantes parmi les plus nuisibles du monde sont recensées dans une liste élaborée par le Groupe de spécialistes des espèces envahissantes (GSEE) de la Commission de la sauvegarde des espèces (CSE) de l'Union internationale pour la conservation de la nature (UICN)[1], dans le but de sensibiliser à la complexité, à l'importance et aux effets des espèces exotiques envahissantes. Cette liste est citée dans diverses publications scientifiques[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cent espèces envahissantes parmi les plus nuisibles du monde sont recensées dans une liste élaborée par le Groupe de spécialistes des espèces envahissantes (GSEE) de la Commission de la sauvegarde des espèces (CSE) de l'Union internationale pour la conservation de la nature (UICN), dans le but de sensibiliser à la complexité, à l'importance et aux effets des espèces exotiques envahissantes. Cette liste est citée dans diverses publications scientifiques.
 Les critères adoptés pour sélectionner les espèces de cette liste sont :
 la gravité de leurs effets sur la biodiversité ou les activités humaines.
 le fait qu'elles sont des exemples illustratifs de thèmes importants relatifs aux invasions biologiques.
 Pour que les exemples soient le plus variés possible, une seule espèce pour chaque genre a été retenue ; par conséquent, le fait qu'une espèce ne soit pas comprise dans la liste ne signifie pas qu'elle soit nécessairement moins néfaste pour l'environnement.
 Ci-dessous est présentée la liste complète des espèces qui figurent dans la publication de l'UICN. La colonne « Motif » donne un lien vers la fiche de la Global Invasive Species Database qui donne des précisions sur l'écologie et la distribution de l'espèce, ainsi que les motifs l'inclusion dans la liste.
-Pour certains auteurs, Homo sapiens mériterait sans doute de figurer dans cette liste, en tant qu'espèce envahissante et destructrice de l'environnement et des autres espèces animales et végétales[3],[4].
+Pour certains auteurs, Homo sapiens mériterait sans doute de figurer dans cette liste, en tant qu'espèce envahissante et destructrice de l'environnement et des autres espèces animales et végétales,.
 </t>
         </is>
       </c>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cent_esp%C3%A8ces_envahissantes_parmi_les_plus_nuisibles_du_monde</t>
+          <t>Cent_espèces_envahissantes_parmi_les_plus_nuisibles_du_monde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,6 +530,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
